--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_24</t>
+          <t>model_32_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999911638185845</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990676965068361</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999477142493854</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999951158918897</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999760110023865</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G2" t="n">
-        <v>8.248187487794124e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008702643874747718</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I2" t="n">
-        <v>4.601227302459605e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>5.498235307190161e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>2.575525416589311e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000176567350386864</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002871965788061223</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000008482734159</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002994231317447755</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P2" t="n">
-        <v>121.4110341604082</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q2" t="n">
-        <v>181.1359495789501</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_23</t>
+          <t>model_32_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999913519829052</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990672908731014</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999488558449653</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999952070276782</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999765266452687</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G3" t="n">
-        <v>8.072544353880802e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000870643028760863</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I3" t="n">
-        <v>4.500765117475787e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.395640115016353e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>2.520164564488711e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001752487086550703</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002841222334468178</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000008302096411</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002962179051387531</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P3" t="n">
-        <v>121.4540836797747</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q3" t="n">
-        <v>181.1789990983165</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_22</t>
+          <t>model_32_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999914726838652</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990669709984333</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999496006510105</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999952605921419</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999768599733376</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G4" t="n">
-        <v>7.959875305844561e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008709416177227042</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I4" t="n">
-        <v>4.435221028127602e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>5.335340461766394e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>2.48437753715212e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001745908038019456</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002821325097510842</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000008186223489</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002941434747859962</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P4" t="n">
-        <v>121.4821944466512</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q4" t="n">
-        <v>181.207109865193</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_21</t>
+          <t>model_32_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999917164245388</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990664567924845</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999510768039924</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999953820558042</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999775288231564</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G5" t="n">
-        <v>7.732354086126964e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008714216064048988</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I5" t="n">
-        <v>4.305317271878133e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>5.198603972446458e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>2.412567962777844e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001727506563213758</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002780711075629211</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000007952232443</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002899091702984215</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P5" t="n">
-        <v>121.5401944055438</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q5" t="n">
-        <v>181.2651098240856</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_20</t>
+          <t>model_32_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999919013344739</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990659878346765</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999522108425362</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999954699079875</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999780393661404</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5597487782382e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008718593579337743</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I6" t="n">
-        <v>4.205520117811114e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>5.09970526560464e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>2.357754649912701e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001715202843990548</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00274949973235827</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000007774718905</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002866551628213843</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P6" t="n">
-        <v>121.5853451974335</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.3102606159753</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_19</t>
+          <t>model_32_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999921210167749</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990654572465631</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999535557309527</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999955757467321</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999786461202617</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G7" t="n">
-        <v>7.354684993223702e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008723546386474983</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I7" t="n">
-        <v>4.087167847291819e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>4.980558369319348e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>2.292611842111877e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001699817124014588</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002711952247592811</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000007563823896</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00282740566928791</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P7" t="n">
-        <v>121.6403460675151</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.3652614860569</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_18</t>
+          <t>model_32_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999923558011324</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990648587938794</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999954995214262</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999956905594218</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999792962603454</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G8" t="n">
-        <v>7.135524101330326e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008729132679587019</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I8" t="n">
-        <v>3.960491079214905e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>4.851309145040888e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>2.222810996859496e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001683444689568811</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002671240180390061</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000007338430913</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002784960405098741</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P8" t="n">
-        <v>121.7008497094929</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q8" t="n">
-        <v>181.4257651280347</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_17</t>
+          <t>model_32_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999926083191886</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990642058921586</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999956546491778</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999958155407351</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999799975484466</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G9" t="n">
-        <v>6.899809580224018e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000873522723056047</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I9" t="n">
-        <v>3.823976247232043e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.71061269570182e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>2.147518758401113e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001665416808188118</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002626748861277762</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000007096013579</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002738574998422104</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P9" t="n">
-        <v>121.7680334876217</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.4929489061635</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_16</t>
+          <t>model_32_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999928502217973</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990635084533499</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999580437965858</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999959340214756</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999980673308717</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G10" t="n">
-        <v>6.674004113245918e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008741737515699684</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I10" t="n">
-        <v>3.692211097442766e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4.577234200449229e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>2.074967258743844e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001649003031063405</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002583409397142837</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000006863787075</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002693390483573897</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P10" t="n">
-        <v>121.8345811226527</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q10" t="n">
-        <v>181.5594965411945</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_15</t>
+          <t>model_32_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999930803253048</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990627748228097</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999594822227728</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999960447530836</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999813212972262</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G11" t="n">
-        <v>6.459212589392235e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008748585634765627</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I11" t="n">
-        <v>3.56562735777434e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.45257921277642e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>2.00539741252083e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001634223320674531</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002541498099427233</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000006642887707</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002649694935146193</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P11" t="n">
-        <v>121.9000062755719</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q11" t="n">
-        <v>181.6249216941137</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_14</t>
+          <t>model_32_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999933225072302</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990620146980621</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999610033959183</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999961643374862</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999820069968839</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2331463925551e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008755681065628348</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I12" t="n">
-        <v>3.431761757175016e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>4.317958281006369e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>1.931778792637827e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000161802565568602</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002496627003089388</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000006410393059</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002602913583341272</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P12" t="n">
-        <v>121.9712586274415</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.6961740459833</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_13</t>
+          <t>model_32_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999993585892447</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990611275873766</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999626670115331</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999962935819902</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999827566786519</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G13" t="n">
-        <v>5.987287853883396e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008763961854480643</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I13" t="n">
-        <v>3.285360997927271e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>4.172462587847553e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>1.851290875679759e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001600598241845853</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002446893510940637</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000006157543251</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002551062833469227</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0517440547134</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.7766594732552</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999939519481863</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990600038245113</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999649527135653</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999964847444329</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999837923964893</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G14" t="n">
-        <v>5.645590889308596e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000877445168755263</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I14" t="n">
-        <v>3.08421566727027e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.957263401312173e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>1.740093331811795e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001570536728169638</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002376045220383778</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000005806129741</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002477198384507183</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P14" t="n">
-        <v>122.1692713820592</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q14" t="n">
-        <v>181.894186800601</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_11</t>
+          <t>model_32_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999942990140394</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990587923516222</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999671409390997</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999996667602963</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999847863925796</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G15" t="n">
-        <v>5.321620149949772e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008785760255198222</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I15" t="n">
-        <v>2.891648419903259e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.751412260491926e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>1.633375150588818e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000154322365352758</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002306863704242141</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000005472946522</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002405071667997915</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P15" t="n">
-        <v>122.2874655230184</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.0123809415603</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_10</t>
+          <t>model_32_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999946636066245</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990574345300776</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999694586405317</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999968649268413</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999858393499504</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G16" t="n">
-        <v>4.981288975413937e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000879843492330189</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I16" t="n">
-        <v>2.68768709234223e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>3.529276900309994e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>1.520326722513509e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001513161495673885</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002231880143604028</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000005122937641</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002326895901946069</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P16" t="n">
-        <v>122.4196437400282</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.1445591585701</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_9</t>
+          <t>model_32_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999953073055738</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990553703475847</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999734263109822</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999972380376555</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999876612215942</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G17" t="n">
-        <v>4.380424261388052e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008817703160801805</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I17" t="n">
-        <v>2.338525927209389e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>3.109251174725137e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>1.324725522340952e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001443632683530971</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002092946311157563</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000004504986649</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002182047368619677</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P17" t="n">
-        <v>122.6767299498725</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q17" t="n">
-        <v>182.4016453684144</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_8</t>
+          <t>model_32_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999956903737149</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990536389823422</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999759107831336</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999974569483244</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999887944593134</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G18" t="n">
-        <v>4.022846966423138e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008833864695358355</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I18" t="n">
-        <v>2.119888517194616e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.862814703336952e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>1.203057973075562e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001408025683271465</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002005703608817399</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000004137241234</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002091090563823601</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P18" t="n">
-        <v>122.8470414107726</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.5719568293144</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_7</t>
+          <t>model_32_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999962956478019</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990512144164764</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999797190359881</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999978255797698</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999905482162857</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G19" t="n">
-        <v>3.457850174615825e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008856496953454854</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I19" t="n">
-        <v>1.784756348234421e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.447831582030444e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>1.014769753218733e-05</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001334222568772877</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001859529557338583</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00000355617811</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001938693580351331</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P19" t="n">
-        <v>123.1497269976412</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.874642416183</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_6</t>
+          <t>model_32_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999967520632557</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990489285590867</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999826983989503</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999981131521268</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999919200219716</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G20" t="n">
-        <v>3.031806382848186e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008877834428812105</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I20" t="n">
-        <v>1.522567777846896e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.124099909659287e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>8.674888844064125e-06</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000127692731031246</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001741208311158715</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000003118019275</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001815335153762841</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P20" t="n">
-        <v>123.4127039002456</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1376193187875</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_5</t>
+          <t>model_32_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999997219201996</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990461549716941</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999858055912071</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999984197062891</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999933541678576</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G21" t="n">
-        <v>2.595752873823595e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008903724649658211</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I21" t="n">
-        <v>1.249130030894651e-05</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>1.778999661915149e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>7.135149985430827e-06</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001212272127972068</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001611134033475674</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000002669566084</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001679723344787959</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P21" t="n">
-        <v>123.7232679172739</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.4481833358158</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_4</t>
+          <t>model_32_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999978287981046</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990424658904471</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999897798741345</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999988390543598</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999952028102224</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G22" t="n">
-        <v>2.026721664587187e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008938160603779621</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I22" t="n">
-        <v>8.993869575241259e-06</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.30692281257231e-06</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>5.150396193906785e-06</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000110284898090231</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001423629749825139</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00000208435382</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001484236615595044</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P22" t="n">
-        <v>124.2181820277814</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q22" t="n">
-        <v>183.9430974463232</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_3</t>
+          <t>model_32_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999983125060405</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990385218876111</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999931040154532</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999991990546367</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999967538890782</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G23" t="n">
-        <v>1.575201538723294e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008974976139036024</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I23" t="n">
-        <v>6.068573559992021e-06</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>9.016561418556827e-07</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>3.485114850923851e-06</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>9.977632841994565e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001255070332181943</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000001619994201</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001308501274576681</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P23" t="n">
-        <v>124.7222546655577</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.4471700840995</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_2</t>
+          <t>model_32_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999986259373632</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.999034747011178</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999955354785794</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999994677982066</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999978912761427</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G24" t="n">
-        <v>1.282627157108097e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009010212953560201</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I24" t="n">
-        <v>3.928848225594323e-06</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>5.991207862528634e-07</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>2.263984505923593e-06</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>9.06574302443429e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001132531305133813</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000001319100131</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001180745507456355</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P24" t="n">
-        <v>125.1332002339475</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q24" t="n">
-        <v>184.8581156524893</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_1</t>
+          <t>model_32_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999988815967317</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990300897942205</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999977545818036</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999997233997339</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999989347412076</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G25" t="n">
-        <v>1.043980358727116e-06</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009053686029576321</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I25" t="n">
-        <v>1.976002905051049e-06</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.113799520335424e-07</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>1.143691428542296e-06</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>7.962363570149709e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001021753570449899</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000001073667138</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001065251735265424</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P25" t="n">
-        <v>125.5449397643212</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q25" t="n">
-        <v>185.269855182863</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_0</t>
+          <t>model_32_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999989863943306</v>
+        <v>0.9999949039827802</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990251613394818</v>
+        <v>0.9991177146462858</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999992500603022</v>
+        <v>0.9999826080166279</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999035632983</v>
+        <v>0.9999986869145568</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999996421398898</v>
+        <v>0.9999896941572535</v>
       </c>
       <c r="G26" t="n">
-        <v>9.461564002142592e-07</v>
+        <v>4.756908385316126e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009099690991220056</v>
+        <v>0.0008235746498410597</v>
       </c>
       <c r="I26" t="n">
-        <v>6.59958587542377e-07</v>
+        <v>2.527387479370727e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>1.085626415989995e-07</v>
+        <v>8.309921717876705e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>3.842085544163755e-07</v>
+        <v>1.305243338010575e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>6.835657466801747e-05</v>
+        <v>8.583594873526996e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0009727057110011533</v>
+        <v>0.002181033788210565</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000000973061443</v>
+        <v>1.000004892176531</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001014115806896879</v>
+        <v>0.00227388491193704</v>
       </c>
       <c r="P26" t="n">
-        <v>125.7417159072753</v>
+        <v>122.5118251992398</v>
       </c>
       <c r="Q26" t="n">
-        <v>185.4666313258171</v>
+        <v>182.2367406177816</v>
       </c>
     </row>
   </sheetData>
